--- a/biology/Botanique/Albugo_candida/Albugo_candida.xlsx
+++ b/biology/Botanique/Albugo_candida/Albugo_candida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albugo candida est une espèce de pseudochampignon oomycète de la famille des Albuginaceae.
 C'est l'agent pathogène de la rouille blanche, maladie fongique qui affecte diverses espèces de Brassicaceae (Crucifères) sauvages ou cultivées.
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (29 juillet 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (29 juillet 2014) :
 Aecidium candidum Pers. 1792,
 Albugo candida var. candida (Pers.) Roussel 1806,
 Albugo candida f. candida (Pers.) Roussel 1806,
